--- a/abrak/megye adatok 2023 juliustol.xlsx
+++ b/abrak/megye adatok 2023 juliustol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllamVizsga\abrak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F7FD9-06A7-46BE-A034-305FE06F0597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1B115-7D80-4E40-871B-C1CC9D4544BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="megye adatok 2023 juliustol" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Search results - Unemployment rate by gender, macroregions, development regions and counties, at the end of the month</t>
   </si>
@@ -1108,14 +1108,14 @@
       <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2">
@@ -1170,7 +1170,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -1183,7 +1183,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1348,7 +1348,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1377,17 +1377,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1555,109 +1555,43 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C13">
-        <v>3.7</v>
-      </c>
-      <c r="D13">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>5.3</v>
-      </c>
-      <c r="C14">
-        <v>3.8</v>
-      </c>
-      <c r="D14">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>5.3</v>
-      </c>
-      <c r="C15">
-        <v>3.7</v>
-      </c>
-      <c r="D15">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>5.3</v>
-      </c>
-      <c r="C16">
-        <v>3.9</v>
-      </c>
-      <c r="D16">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>5.2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D18">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
     </row>
   </sheetData>
@@ -1671,18 +1605,18 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1696,10 +1630,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f t="array" ref="A2:A8">TRANSPOSE('megye adatok 2023 juliustol'!C3:I3)</f>
-        <v>45078</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B2">
         <v>4.2</v>
@@ -1711,9 +1644,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>45108</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B3">
         <v>4.9000000000000004</v>
@@ -1725,9 +1658,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45139</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B4">
         <v>5.3</v>
@@ -1739,9 +1672,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>45170</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B5">
         <v>5.3</v>
@@ -1753,9 +1686,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>45200</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>5.3</v>
@@ -1767,9 +1700,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45231</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>5.2</v>
@@ -1781,9 +1714,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>45261</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>5.0999999999999996</v>
@@ -1795,7 +1728,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>15</v>
       </c>
